--- a/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H2">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J2">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.0792426056337</v>
+        <v>82.48638166666666</v>
       </c>
       <c r="N2">
-        <v>82.0792426056337</v>
+        <v>247.459145</v>
       </c>
       <c r="O2">
-        <v>0.8190380511179876</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="P2">
-        <v>0.8190380511179876</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="Q2">
-        <v>2112.617912108606</v>
+        <v>2418.610719804349</v>
       </c>
       <c r="R2">
-        <v>2112.617912108606</v>
+        <v>21767.49647823914</v>
       </c>
       <c r="S2">
-        <v>0.004971700462278239</v>
+        <v>0.005054288433868938</v>
       </c>
       <c r="T2">
-        <v>0.004971700462278239</v>
+        <v>0.005054288433868939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H3">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J3">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>15.8729238122926</v>
+        <v>0.8713403333333334</v>
       </c>
       <c r="N3">
-        <v>15.8729238122926</v>
+        <v>2.614021</v>
       </c>
       <c r="O3">
-        <v>0.1583899676953416</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="P3">
-        <v>0.1583899676953416</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="Q3">
-        <v>408.5493737375559</v>
+        <v>25.54886065089122</v>
       </c>
       <c r="R3">
-        <v>408.5493737375559</v>
+        <v>229.939745858021</v>
       </c>
       <c r="S3">
-        <v>0.0009614540796197094</v>
+        <v>5.339069649735723E-05</v>
       </c>
       <c r="T3">
-        <v>0.0009614540796197094</v>
+        <v>5.339069649735724E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.7387598257833</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H4">
-        <v>25.7387598257833</v>
+        <v>87.964001</v>
       </c>
       <c r="I4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J4">
-        <v>0.006070170311979845</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.26203302445061</v>
+        <v>17.88507033333333</v>
       </c>
       <c r="N4">
-        <v>2.26203302445061</v>
+        <v>53.65521099999999</v>
       </c>
       <c r="O4">
-        <v>0.02257198118667083</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="P4">
-        <v>0.02257198118667083</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="Q4">
-        <v>58.22192473432446</v>
+        <v>524.4141148954678</v>
       </c>
       <c r="R4">
-        <v>58.22192473432446</v>
+        <v>4719.72703405921</v>
       </c>
       <c r="S4">
-        <v>0.0001370157700818969</v>
+        <v>0.001095893677213252</v>
       </c>
       <c r="T4">
-        <v>0.0001370157700818969</v>
+        <v>0.001095893677213253</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.9566938861627</v>
+        <v>29.32133366666666</v>
       </c>
       <c r="H5">
-        <v>42.9566938861627</v>
+        <v>87.964001</v>
       </c>
       <c r="I5">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="J5">
-        <v>0.01013080854297359</v>
+        <v>0.006401919837078288</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.0792426056337</v>
+        <v>3.237038999999999</v>
       </c>
       <c r="N5">
-        <v>82.0792426056337</v>
+        <v>9.711116999999998</v>
       </c>
       <c r="O5">
-        <v>0.8190380511179876</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="P5">
-        <v>0.8190380511179876</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="Q5">
-        <v>3525.852899018289</v>
+        <v>94.91430061101298</v>
       </c>
       <c r="R5">
-        <v>3525.852899018289</v>
+        <v>854.2287054991168</v>
       </c>
       <c r="S5">
-        <v>0.008297517685286549</v>
+        <v>0.0001983470294987401</v>
       </c>
       <c r="T5">
-        <v>0.008297517685286549</v>
+        <v>0.0001983470294987402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H6">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J6">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.8729238122926</v>
+        <v>82.48638166666666</v>
       </c>
       <c r="N6">
-        <v>15.8729238122926</v>
+        <v>247.459145</v>
       </c>
       <c r="O6">
-        <v>0.1583899676953416</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="P6">
-        <v>0.1583899676953416</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="Q6">
-        <v>681.8483292830358</v>
+        <v>3755.144105868962</v>
       </c>
       <c r="R6">
-        <v>681.8483292830358</v>
+        <v>33796.29695282065</v>
       </c>
       <c r="S6">
-        <v>0.001604618437849278</v>
+        <v>0.007847307243945376</v>
       </c>
       <c r="T6">
-        <v>0.001604618437849278</v>
+        <v>0.007847307243945376</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>42.9566938861627</v>
+        <v>45.524413</v>
       </c>
       <c r="H7">
-        <v>42.9566938861627</v>
+        <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J7">
-        <v>0.01013080854297359</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.26203302445061</v>
+        <v>0.8713403333333334</v>
       </c>
       <c r="N7">
-        <v>2.26203302445061</v>
+        <v>2.614021</v>
       </c>
       <c r="O7">
-        <v>0.02257198118667083</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="P7">
-        <v>0.02257198118667083</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="Q7">
-        <v>97.16946019171564</v>
+        <v>39.66725719822434</v>
       </c>
       <c r="R7">
-        <v>97.16946019171564</v>
+        <v>357.005314784019</v>
       </c>
       <c r="S7">
-        <v>0.0002286724198377641</v>
+        <v>8.289459631457686E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002286724198377641</v>
+        <v>8.289459631457684E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4143.12765351171</v>
+        <v>45.524413</v>
       </c>
       <c r="H8">
-        <v>4143.12765351171</v>
+        <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J8">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.0792426056337</v>
+        <v>17.88507033333333</v>
       </c>
       <c r="N8">
-        <v>82.0792426056337</v>
+        <v>53.65521099999999</v>
       </c>
       <c r="O8">
-        <v>0.8190380511179876</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="P8">
-        <v>0.8190380511179876</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="Q8">
-        <v>340064.7798186975</v>
+        <v>814.2073283887142</v>
       </c>
       <c r="R8">
-        <v>340064.7798186975</v>
+        <v>7327.865955498428</v>
       </c>
       <c r="S8">
-        <v>0.8002867974084706</v>
+        <v>0.001701488647573391</v>
       </c>
       <c r="T8">
-        <v>0.8002867974084706</v>
+        <v>0.001701488647573391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4143.12765351171</v>
+        <v>45.524413</v>
       </c>
       <c r="H9">
-        <v>4143.12765351171</v>
+        <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300594</v>
       </c>
       <c r="J9">
-        <v>0.9771057600023327</v>
+        <v>0.009939644832300592</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8729238122926</v>
+        <v>3.237038999999999</v>
       </c>
       <c r="N9">
-        <v>15.8729238122926</v>
+        <v>9.711116999999998</v>
       </c>
       <c r="O9">
-        <v>0.1583899676953416</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="P9">
-        <v>0.1583899676953416</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="Q9">
-        <v>65763.54958879399</v>
+        <v>147.364300333107</v>
       </c>
       <c r="R9">
-        <v>65763.54958879399</v>
+        <v>1326.278702997963</v>
       </c>
       <c r="S9">
-        <v>0.1547637497617017</v>
+        <v>0.0003079543444672497</v>
       </c>
       <c r="T9">
-        <v>0.1547637497617017</v>
+        <v>0.0003079543444672496</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4143.12765351171</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H10">
-        <v>4143.12765351171</v>
+        <v>13314.645752</v>
       </c>
       <c r="I10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J10">
-        <v>0.9771057600023327</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.26203302445061</v>
+        <v>82.48638166666666</v>
       </c>
       <c r="N10">
-        <v>2.26203302445061</v>
+        <v>247.459145</v>
       </c>
       <c r="O10">
-        <v>0.02257198118667083</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="P10">
-        <v>0.02257198118667083</v>
+        <v>0.7894957391680832</v>
       </c>
       <c r="Q10">
-        <v>9371.891576758055</v>
+        <v>366092.3170853113</v>
       </c>
       <c r="R10">
-        <v>9371.891576758055</v>
+        <v>3294830.853767802</v>
       </c>
       <c r="S10">
-        <v>0.02205521283216036</v>
+        <v>0.7650409174247975</v>
       </c>
       <c r="T10">
-        <v>0.02205521283216036</v>
+        <v>0.7650409174247974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H11">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I11">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J11">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>82.0792426056337</v>
+        <v>0.8713403333333334</v>
       </c>
       <c r="N11">
-        <v>82.0792426056337</v>
+        <v>2.614021</v>
       </c>
       <c r="O11">
-        <v>0.8190380511179876</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="P11">
-        <v>0.8190380511179876</v>
+        <v>0.008339794601633706</v>
       </c>
       <c r="Q11">
-        <v>2329.473911565683</v>
+        <v>3867.195955920978</v>
       </c>
       <c r="R11">
-        <v>2329.473911565683</v>
+        <v>34804.7636032888</v>
       </c>
       <c r="S11">
-        <v>0.005482035561952022</v>
+        <v>0.008081467443879218</v>
       </c>
       <c r="T11">
-        <v>0.005482035561952022</v>
+        <v>0.008081467443879217</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H12">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I12">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J12">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.8729238122926</v>
+        <v>17.88507033333333</v>
       </c>
       <c r="N12">
-        <v>15.8729238122926</v>
+        <v>53.65521099999999</v>
       </c>
       <c r="O12">
-        <v>0.1583899676953416</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="P12">
-        <v>0.1583899676953416</v>
+        <v>0.1711820368112258</v>
       </c>
       <c r="Q12">
-        <v>450.4861490823189</v>
+        <v>79377.79191264596</v>
       </c>
       <c r="R12">
-        <v>450.4861490823189</v>
+        <v>714400.1272138136</v>
       </c>
       <c r="S12">
-        <v>0.001060145416170916</v>
+        <v>0.165879631759259</v>
       </c>
       <c r="T12">
-        <v>0.001060145416170916</v>
+        <v>0.165879631759259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>28.3807919958291</v>
+        <v>4438.215250666667</v>
       </c>
       <c r="H13">
-        <v>28.3807919958291</v>
+        <v>13314.645752</v>
       </c>
       <c r="I13">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915309</v>
       </c>
       <c r="J13">
-        <v>0.006693261142713747</v>
+        <v>0.9690247577915307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.26203302445061</v>
+        <v>3.237038999999999</v>
       </c>
       <c r="N13">
-        <v>2.26203302445061</v>
+        <v>9.711116999999998</v>
       </c>
       <c r="O13">
-        <v>0.02257198118667083</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="P13">
-        <v>0.02257198118667083</v>
+        <v>0.03098242941905719</v>
       </c>
       <c r="Q13">
-        <v>64.19828875462896</v>
+        <v>14366.67585680277</v>
       </c>
       <c r="R13">
-        <v>64.19828875462896</v>
+        <v>129300.082711225</v>
       </c>
       <c r="S13">
-        <v>0.0001510801645908096</v>
+        <v>0.03002274116359509</v>
       </c>
       <c r="T13">
-        <v>0.0001510801645908096</v>
+        <v>0.03002274116359509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H14">
+        <v>201.070438</v>
+      </c>
+      <c r="I14">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J14">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>82.48638166666666</v>
+      </c>
+      <c r="N14">
+        <v>247.459145</v>
+      </c>
+      <c r="O14">
+        <v>0.7894957391680832</v>
+      </c>
+      <c r="P14">
+        <v>0.7894957391680832</v>
+      </c>
+      <c r="Q14">
+        <v>5528.524296917278</v>
+      </c>
+      <c r="R14">
+        <v>49756.71867225551</v>
+      </c>
+      <c r="S14">
+        <v>0.0115532260654715</v>
+      </c>
+      <c r="T14">
+        <v>0.0115532260654715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H15">
+        <v>201.070438</v>
+      </c>
+      <c r="I15">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J15">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.8713403333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.614021</v>
+      </c>
+      <c r="O15">
+        <v>0.008339794601633706</v>
+      </c>
+      <c r="P15">
+        <v>0.008339794601633706</v>
+      </c>
+      <c r="Q15">
+        <v>58.40026082346644</v>
+      </c>
+      <c r="R15">
+        <v>525.602347411198</v>
+      </c>
+      <c r="S15">
+        <v>0.000122041864942554</v>
+      </c>
+      <c r="T15">
+        <v>0.000122041864942554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H16">
+        <v>201.070438</v>
+      </c>
+      <c r="I16">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J16">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>17.88507033333333</v>
+      </c>
+      <c r="N16">
+        <v>53.65521099999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1711820368112258</v>
+      </c>
+      <c r="P16">
+        <v>0.1711820368112258</v>
+      </c>
+      <c r="Q16">
+        <v>1198.71964186138</v>
+      </c>
+      <c r="R16">
+        <v>10788.47677675242</v>
+      </c>
+      <c r="S16">
+        <v>0.002505022727180171</v>
+      </c>
+      <c r="T16">
+        <v>0.002505022727180172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>67.02347933333333</v>
+      </c>
+      <c r="H17">
+        <v>201.070438</v>
+      </c>
+      <c r="I17">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="J17">
+        <v>0.01463367753909034</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.237038999999999</v>
+      </c>
+      <c r="N17">
+        <v>9.711116999999998</v>
+      </c>
+      <c r="O17">
+        <v>0.03098242941905719</v>
+      </c>
+      <c r="P17">
+        <v>0.03098242941905719</v>
+      </c>
+      <c r="Q17">
+        <v>216.9576165176939</v>
+      </c>
+      <c r="R17">
+        <v>1952.618548659246</v>
+      </c>
+      <c r="S17">
+        <v>0.0004533868814961089</v>
+      </c>
+      <c r="T17">
+        <v>0.0004533868814961089</v>
       </c>
     </row>
   </sheetData>
